--- a/apidata/momentum/28-07-2023/report_28-07-2023.xlsx
+++ b/apidata/momentum/28-07-2023/report_28-07-2023.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M121"/>
+  <dimension ref="B1:M115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7846.099999999977</v>
+        <v>-85395</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2511.099999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5335</v>
+        <v>-85395</v>
       </c>
     </row>
     <row r="7"/>
@@ -592,7 +592,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-07-28 09:31:00</t>
+          <t>2023-07-28 10:15:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -602,31 +602,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DELTACORP-EQ</t>
+          <t>DELTACORP31AUG23C200</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15044</v>
+        <v>112125</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2800</v>
       </c>
       <c r="H10" t="n">
-        <v>246</v>
+        <v>5600</v>
       </c>
       <c r="I10" t="n">
-        <v>202.5</v>
+        <v>13.45</v>
       </c>
       <c r="J10" t="n">
-        <v>49815</v>
+        <v>75320</v>
       </c>
       <c r="K10" t="n">
-        <v>-49815</v>
+        <v>-75320</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-07-28 09:31:00</t>
+          <t>2023-07-28 10:15:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -647,31 +647,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RBLBANK-EQ</t>
+          <t>RBLBANK31AUG23C240</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>18391</v>
+        <v>172747</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="H11" t="n">
-        <v>209</v>
+        <v>5000</v>
       </c>
       <c r="I11" t="n">
-        <v>239</v>
+        <v>14.65</v>
       </c>
       <c r="J11" t="n">
-        <v>49951</v>
+        <v>73250</v>
       </c>
       <c r="K11" t="n">
-        <v>-49951</v>
+        <v>-73250</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-07-28 09:31:00</t>
+          <t>2023-07-28 10:15:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -692,31 +692,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IEX-EQ</t>
+          <t>IEX31AUG23C124</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220</v>
+        <v>148606</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>3750</v>
       </c>
       <c r="H12" t="n">
-        <v>407</v>
+        <v>15000</v>
       </c>
       <c r="I12" t="n">
-        <v>122.8</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>49979.6</v>
+        <v>90000</v>
       </c>
       <c r="K12" t="n">
-        <v>-49979.6</v>
+        <v>-90000</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-07-28 09:31:00</t>
+          <t>2023-07-28 10:15:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -737,31 +737,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SUNTV-EQ</t>
+          <t>SUNTV31AUG23C550</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13404</v>
+        <v>143212</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="H13" t="n">
-        <v>91</v>
+        <v>3000</v>
       </c>
       <c r="I13" t="n">
-        <v>545.8</v>
+        <v>25.2</v>
       </c>
       <c r="J13" t="n">
-        <v>49667.8</v>
+        <v>75600</v>
       </c>
       <c r="K13" t="n">
-        <v>-49667.8</v>
+        <v>-75600</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-07-28 09:31:00</t>
+          <t>2023-07-28 10:15:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -782,31 +782,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BSOFT-EQ</t>
+          <t>BSOFT31AUG23C415</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6994</v>
+        <v>102351</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H14" t="n">
-        <v>120</v>
+        <v>4000</v>
       </c>
       <c r="I14" t="n">
-        <v>416.05</v>
+        <v>22.35</v>
       </c>
       <c r="J14" t="n">
-        <v>49926</v>
+        <v>89400</v>
       </c>
       <c r="K14" t="n">
-        <v>-49926</v>
+        <v>-89400</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-07-28 09:31:00</t>
+          <t>2023-07-28 10:15:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -827,42 +827,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MOTHERSON-EQ</t>
+          <t>MOTHERSON31AUG23P97</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4204</v>
+        <v>135854</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>7100</v>
       </c>
       <c r="H15" t="n">
-        <v>511</v>
+        <v>21300</v>
       </c>
       <c r="I15" t="n">
-        <v>97.7</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>49924.7</v>
+        <v>87330</v>
       </c>
       <c r="K15" t="n">
-        <v>49924.7</v>
+        <v>-87330</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-07-28 09:31:00</t>
+          <t>2023-07-28 10:15:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -872,42 +872,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AXISBANK-EQ</t>
+          <t>AXISBANK31AUG23P950</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5900</v>
+        <v>88571</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>625</v>
       </c>
       <c r="H16" t="n">
-        <v>52</v>
+        <v>5000</v>
       </c>
       <c r="I16" t="n">
-        <v>946.85</v>
+        <v>20</v>
       </c>
       <c r="J16" t="n">
-        <v>49236.2</v>
+        <v>100000</v>
       </c>
       <c r="K16" t="n">
-        <v>49236.2</v>
+        <v>-100000</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-07-28 09:31:00</t>
+          <t>2023-07-28 10:15:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -917,121 +917,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LALPATHLAB-EQ</t>
+          <t>LALPATHLAB31AUG23P2400</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11654</v>
+        <v>133224</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="I17" t="n">
-        <v>2430.65</v>
+        <v>134.75</v>
       </c>
       <c r="J17" t="n">
-        <v>48613</v>
+        <v>80850</v>
       </c>
       <c r="K17" t="n">
-        <v>48613</v>
+        <v>-80850</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-07-28 09:31:00</t>
+          <t>2023-07-28 10:15:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>MGL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HINDPETRO-EQ</t>
+          <t>MGL31AUG23P1100</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1406</v>
+        <v>135604</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="H18" t="n">
-        <v>175</v>
+        <v>2400</v>
       </c>
       <c r="I18" t="n">
-        <v>284.65</v>
+        <v>41.5</v>
       </c>
       <c r="J18" t="n">
-        <v>49813.75</v>
+        <v>99600</v>
       </c>
       <c r="K18" t="n">
-        <v>49813.75</v>
+        <v>-99600</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-07-28 09:31:00</t>
+          <t>2023-07-28 10:20:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>RBLBANK</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MGL-EQ</t>
+          <t>RBLBANK31AUG23C240</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>17534</v>
+        <v>172747</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="H19" t="n">
-        <v>45</v>
+        <v>5000</v>
       </c>
       <c r="I19" t="n">
-        <v>1090</v>
+        <v>13.05</v>
       </c>
       <c r="J19" t="n">
-        <v>49050</v>
+        <v>65250</v>
       </c>
       <c r="K19" t="n">
-        <v>49050</v>
+        <v>65250</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1042,41 +1042,41 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-07-28 09:40:00</t>
+          <t>2023-07-28 10:20:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DELTACORP</t>
+          <t>SUNTV</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DELTACORP-EQ</t>
+          <t>SUNTV31AUG23C550</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>15044</v>
+        <v>143212</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="H20" t="n">
-        <v>246</v>
+        <v>3000</v>
       </c>
       <c r="I20" t="n">
-        <v>199.75</v>
+        <v>22.35</v>
       </c>
       <c r="J20" t="n">
-        <v>49138.5</v>
+        <v>67050</v>
       </c>
       <c r="K20" t="n">
-        <v>49138.5</v>
+        <v>67050</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1087,41 +1087,41 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-07-28 09:40:00</t>
+          <t>2023-07-28 10:26:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RBLBANK</t>
+          <t>BSOFT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RBLBANK-EQ</t>
+          <t>BSOFT31AUG23C415</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18391</v>
+        <v>102351</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H21" t="n">
-        <v>209</v>
+        <v>4000</v>
       </c>
       <c r="I21" t="n">
-        <v>239.4</v>
+        <v>20.8</v>
       </c>
       <c r="J21" t="n">
-        <v>50034.6</v>
+        <v>83200</v>
       </c>
       <c r="K21" t="n">
-        <v>50034.6</v>
+        <v>83200</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1132,41 +1132,41 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-07-28 09:40:00</t>
+          <t>2023-07-28 11:14:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SUNTV</t>
+          <t>IEX</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SUNTV-EQ</t>
+          <t>IEX31AUG23C124</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13404</v>
+        <v>148606</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>3750</v>
       </c>
       <c r="H22" t="n">
-        <v>91</v>
+        <v>15000</v>
       </c>
       <c r="I22" t="n">
-        <v>544.95</v>
+        <v>5.7</v>
       </c>
       <c r="J22" t="n">
-        <v>49590.45</v>
+        <v>85500</v>
       </c>
       <c r="K22" t="n">
-        <v>49590.45</v>
+        <v>85500</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1177,131 +1177,131 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-07-28 09:45:00</t>
+          <t>2023-07-28 11:15:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>DELTACORP</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IEX-EQ</t>
+          <t>DELTACORP31AUG23C200</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220</v>
+        <v>112125</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2800</v>
       </c>
       <c r="H23" t="n">
-        <v>407</v>
+        <v>5600</v>
       </c>
       <c r="I23" t="n">
-        <v>124</v>
+        <v>14.1</v>
       </c>
       <c r="J23" t="n">
-        <v>50468</v>
+        <v>78960</v>
       </c>
       <c r="K23" t="n">
-        <v>50468</v>
+        <v>-78960</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-07-28 09:50:00</t>
+          <t>2023-07-28 11:15:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BSOFT</t>
+          <t>RBLBANK</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>BSOFT-EQ</t>
+          <t>RBLBANK31AUG23C237.5</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6994</v>
+        <v>172745</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="H24" t="n">
-        <v>120</v>
+        <v>5000</v>
       </c>
       <c r="I24" t="n">
-        <v>422.2</v>
+        <v>13.7</v>
       </c>
       <c r="J24" t="n">
-        <v>50664</v>
+        <v>68500</v>
       </c>
       <c r="K24" t="n">
-        <v>50664</v>
+        <v>-68500</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-07-28 15:26:00</t>
+          <t>2023-07-28 11:15:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>IEX</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MOTHERSON-EQ</t>
+          <t>IEX31AUG23C123</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4204</v>
+        <v>148604</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>3750</v>
       </c>
       <c r="H25" t="n">
-        <v>511</v>
+        <v>15000</v>
       </c>
       <c r="I25" t="n">
-        <v>97.55</v>
+        <v>6.4</v>
       </c>
       <c r="J25" t="n">
-        <v>49848.05</v>
+        <v>96000</v>
       </c>
       <c r="K25" t="n">
-        <v>-49848.05</v>
+        <v>-96000</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1312,41 +1312,41 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-07-28 15:26:00</t>
+          <t>2023-07-28 11:15:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>SUNTV</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AXISBANK-EQ</t>
+          <t>SUNTV31AUG23C540</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5900</v>
+        <v>143208</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="H26" t="n">
-        <v>52</v>
+        <v>3000</v>
       </c>
       <c r="I26" t="n">
-        <v>949.7</v>
+        <v>25.55</v>
       </c>
       <c r="J26" t="n">
-        <v>49384.4</v>
+        <v>76650</v>
       </c>
       <c r="K26" t="n">
-        <v>-49384.4</v>
+        <v>-76650</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1357,41 +1357,41 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-07-28 15:26:00</t>
+          <t>2023-07-28 11:15:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LALPATHLAB</t>
+          <t>BSOFT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LALPATHLAB-EQ</t>
+          <t>BSOFT31AUG23C415</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>11654</v>
+        <v>102351</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H27" t="n">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="I27" t="n">
-        <v>2335.9</v>
+        <v>20.8</v>
       </c>
       <c r="J27" t="n">
-        <v>46718</v>
+        <v>83200</v>
       </c>
       <c r="K27" t="n">
-        <v>-46718</v>
+        <v>-83200</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1402,41 +1402,41 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-07-28 15:26:00</t>
+          <t>2023-07-28 11:15:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HINDPETRO-EQ</t>
+          <t>MOTHERSON31AUG23P98</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1406</v>
+        <v>135856</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>7100</v>
       </c>
       <c r="H28" t="n">
-        <v>175</v>
+        <v>21300</v>
       </c>
       <c r="I28" t="n">
-        <v>279.45</v>
+        <v>3.95</v>
       </c>
       <c r="J28" t="n">
-        <v>48903.75</v>
+        <v>84135</v>
       </c>
       <c r="K28" t="n">
-        <v>-48903.75</v>
+        <v>-84135</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1447,45 +1447,45 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-07-28 15:26:00</t>
+          <t>2023-07-28 11:33:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>SUNTV</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MGL-EQ</t>
+          <t>SUNTV31AUG23C540</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>17534</v>
+        <v>143208</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="H29" t="n">
-        <v>45</v>
+        <v>3000</v>
       </c>
       <c r="I29" t="n">
-        <v>1107.3</v>
+        <v>22.9</v>
       </c>
       <c r="J29" t="n">
-        <v>49828.5</v>
+        <v>68700</v>
       </c>
       <c r="K29" t="n">
-        <v>-49828.5</v>
+        <v>68700</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1517,16 +1517,16 @@
         <v>5000</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I30" t="n">
         <v>12.9</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64500</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-64500</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1542,16 +1542,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>LALPATHLAB</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>IEX31AUG23C123</t>
+          <t>LALPATHLAB31AUG23P2380</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>148604</v>
+        <v>133222</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1559,19 +1559,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3750</v>
+        <v>300</v>
       </c>
       <c r="H31" t="n">
-        <v>7500</v>
+        <v>600</v>
       </c>
       <c r="I31" t="n">
-        <v>6.05</v>
+        <v>118.1</v>
       </c>
       <c r="J31" t="n">
-        <v>45375</v>
+        <v>70860</v>
       </c>
       <c r="K31" t="n">
-        <v>-45375</v>
+        <v>-70860</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1582,21 +1582,21 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-07-28 12:15:00</t>
+          <t>2023-07-28 12:21:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BSOFT</t>
+          <t>DELTACORP</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>BSOFT31AUG23C415</t>
+          <t>DELTACORP31AUG23C200</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>102351</v>
+        <v>112125</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1604,44 +1604,44 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="H32" t="n">
-        <v>2000</v>
+        <v>11200</v>
       </c>
       <c r="I32" t="n">
-        <v>21.2</v>
+        <v>12.8</v>
       </c>
       <c r="J32" t="n">
-        <v>42400</v>
+        <v>143360</v>
       </c>
       <c r="K32" t="n">
-        <v>-42400</v>
+        <v>143360</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-07-28 12:15:00</t>
+          <t>2023-07-28 12:26:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>IEX</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MOTHERSON31AUG23P98</t>
+          <t>IEX31AUG23C123</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>135856</v>
+        <v>148604</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1649,44 +1649,44 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>7100</v>
+        <v>3750</v>
       </c>
       <c r="H33" t="n">
-        <v>7100</v>
+        <v>15000</v>
       </c>
       <c r="I33" t="n">
-        <v>3.95</v>
+        <v>5.7</v>
       </c>
       <c r="J33" t="n">
-        <v>28045</v>
+        <v>85500</v>
       </c>
       <c r="K33" t="n">
-        <v>-28045</v>
+        <v>85500</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-07-28 12:15:00</t>
+          <t>2023-07-28 12:41:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>RBLBANK</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>AXISBANK31AUG23P950</t>
+          <t>RBLBANK31AUG23C237.5</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>88571</v>
+        <v>172745</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1694,44 +1694,44 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>625</v>
+        <v>5000</v>
       </c>
       <c r="H34" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="I34" t="n">
-        <v>19.95</v>
+        <v>11.35</v>
       </c>
       <c r="J34" t="n">
-        <v>49875</v>
+        <v>113500</v>
       </c>
       <c r="K34" t="n">
-        <v>-49875</v>
+        <v>113500</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-07-28 12:15:00</t>
+          <t>2023-07-28 12:46:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LALPATHLAB</t>
+          <t>BSOFT</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LALPATHLAB31AUG23P2380</t>
+          <t>BSOFT31AUG23C415</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>133222</v>
+        <v>102351</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1739,44 +1739,44 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H35" t="n">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="I35" t="n">
-        <v>118.1</v>
+        <v>19.6</v>
       </c>
       <c r="J35" t="n">
-        <v>35430</v>
+        <v>78400</v>
       </c>
       <c r="K35" t="n">
-        <v>-35430</v>
+        <v>78400</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-07-28 12:16:00</t>
+          <t>2023-07-28 13:15:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>LALPATHLAB</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>IEX31AUG23C123</t>
+          <t>LALPATHLAB31AUG23P2380</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>148604</v>
+        <v>133222</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1784,44 +1784,44 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3750</v>
+        <v>300</v>
       </c>
       <c r="H36" t="n">
-        <v>7500</v>
+        <v>600</v>
       </c>
       <c r="I36" t="n">
-        <v>6.05</v>
+        <v>125.95</v>
       </c>
       <c r="J36" t="n">
-        <v>45375</v>
+        <v>75570</v>
       </c>
       <c r="K36" t="n">
-        <v>45375</v>
+        <v>-75570</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-07-28 12:16:00</t>
+          <t>2023-07-28 13:15:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BSOFT</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>BSOFT31AUG23C415</t>
+          <t>HINDPETRO31AUG23P280</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>102351</v>
+        <v>128476</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1829,44 +1829,44 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="H37" t="n">
-        <v>2000</v>
+        <v>10800</v>
       </c>
       <c r="I37" t="n">
-        <v>21.2</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
-        <v>42400</v>
+        <v>97200</v>
       </c>
       <c r="K37" t="n">
-        <v>42400</v>
+        <v>-97200</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-07-28 13:15:00</t>
+          <t>2023-07-28 14:15:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LALPATHLAB</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LALPATHLAB31AUG23P2380</t>
+          <t>MOTHERSON31AUG23P97</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>133222</v>
+        <v>135854</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1874,19 +1874,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>300</v>
+        <v>7100</v>
       </c>
       <c r="H38" t="n">
-        <v>300</v>
+        <v>21300</v>
       </c>
       <c r="I38" t="n">
-        <v>125.95</v>
+        <v>4.1</v>
       </c>
       <c r="J38" t="n">
-        <v>37785</v>
+        <v>87330</v>
       </c>
       <c r="K38" t="n">
-        <v>-37785</v>
+        <v>-87330</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1897,21 +1897,21 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-07-28 13:15:00</t>
+          <t>2023-07-28 14:15:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>LALPATHLAB</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P280</t>
+          <t>LALPATHLAB31AUG23P2380</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>128476</v>
+        <v>133222</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1919,19 +1919,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="H39" t="n">
-        <v>5400</v>
+        <v>600</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>132.65</v>
       </c>
       <c r="J39" t="n">
-        <v>48600</v>
+        <v>79590</v>
       </c>
       <c r="K39" t="n">
-        <v>-48600</v>
+        <v>-79590</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1947,16 +1947,16 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>MOTHERSON31AUG23P97</t>
+          <t>HINDPETRO31AUG23P280</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>135854</v>
+        <v>128476</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7100</v>
+        <v>2700</v>
       </c>
       <c r="H40" t="n">
-        <v>7100</v>
+        <v>10800</v>
       </c>
       <c r="I40" t="n">
-        <v>4.1</v>
+        <v>9.25</v>
       </c>
       <c r="J40" t="n">
-        <v>29110</v>
+        <v>99900</v>
       </c>
       <c r="K40" t="n">
-        <v>-29110</v>
+        <v>-99900</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1987,21 +1987,21 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>2023-07-28 14:15:00</t>
+          <t>2023-07-28 15:26:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LALPATHLAB</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LALPATHLAB31AUG23P2380</t>
+          <t>MOTHERSON31AUG23P97</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>133222</v>
+        <v>135854</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2009,44 +2009,44 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>300</v>
+        <v>7100</v>
       </c>
       <c r="H41" t="n">
-        <v>300</v>
+        <v>42600</v>
       </c>
       <c r="I41" t="n">
-        <v>132.65</v>
+        <v>3.75</v>
       </c>
       <c r="J41" t="n">
-        <v>39795</v>
+        <v>159750</v>
       </c>
       <c r="K41" t="n">
-        <v>-39795</v>
+        <v>159750</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>2023-07-28 14:15:00</t>
+          <t>2023-07-28 15:26:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P280</t>
+          <t>MOTHERSON31AUG23P98</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>128476</v>
+        <v>135856</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2054,23 +2054,23 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2700</v>
+        <v>7100</v>
       </c>
       <c r="H42" t="n">
-        <v>5400</v>
+        <v>21300</v>
       </c>
       <c r="I42" t="n">
-        <v>9.25</v>
+        <v>4.3</v>
       </c>
       <c r="J42" t="n">
-        <v>49950</v>
+        <v>91590</v>
       </c>
       <c r="K42" t="n">
-        <v>-49950</v>
+        <v>91590</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -2082,16 +2082,16 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MOTHERSON31AUG23P98</t>
+          <t>AXISBANK31AUG23P950</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>135856</v>
+        <v>88571</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2099,19 +2099,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7100</v>
+        <v>625</v>
       </c>
       <c r="H43" t="n">
-        <v>7100</v>
+        <v>5000</v>
       </c>
       <c r="I43" t="n">
-        <v>4.3</v>
+        <v>19.3</v>
       </c>
       <c r="J43" t="n">
-        <v>30530</v>
+        <v>96500</v>
       </c>
       <c r="K43" t="n">
-        <v>30530</v>
+        <v>96500</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2127,16 +2127,16 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>LALPATHLAB</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>MOTHERSON31AUG23P97</t>
+          <t>LALPATHLAB31AUG23P2400</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>135854</v>
+        <v>133224</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2144,19 +2144,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7100</v>
+        <v>300</v>
       </c>
       <c r="H44" t="n">
-        <v>7100</v>
+        <v>600</v>
       </c>
       <c r="I44" t="n">
-        <v>3.75</v>
+        <v>138.75</v>
       </c>
       <c r="J44" t="n">
-        <v>26625</v>
+        <v>83250</v>
       </c>
       <c r="K44" t="n">
-        <v>26625</v>
+        <v>83250</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2172,16 +2172,16 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>LALPATHLAB</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>AXISBANK31AUG23P950</t>
+          <t>LALPATHLAB31AUG23P2380</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>88571</v>
+        <v>133222</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2189,19 +2189,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>625</v>
+        <v>300</v>
       </c>
       <c r="H45" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="I45" t="n">
-        <v>19.3</v>
+        <v>127</v>
       </c>
       <c r="J45" t="n">
-        <v>48250</v>
+        <v>228600</v>
       </c>
       <c r="K45" t="n">
-        <v>48250</v>
+        <v>228600</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2217,16 +2217,16 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LALPATHLAB</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LALPATHLAB31AUG23P2380</t>
+          <t>HINDPETRO31AUG23P280</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>133222</v>
+        <v>128476</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2234,19 +2234,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>300</v>
+        <v>2700</v>
       </c>
       <c r="H46" t="n">
-        <v>900</v>
+        <v>21600</v>
       </c>
       <c r="I46" t="n">
-        <v>127</v>
+        <v>9.65</v>
       </c>
       <c r="J46" t="n">
-        <v>114300</v>
+        <v>208440</v>
       </c>
       <c r="K46" t="n">
-        <v>114300</v>
+        <v>208440</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2262,16 +2262,16 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>MGL</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P280</t>
+          <t>MGL31AUG23P1100</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>128476</v>
+        <v>135604</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2279,19 +2279,19 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2700</v>
+        <v>800</v>
       </c>
       <c r="H47" t="n">
-        <v>10800</v>
+        <v>2400</v>
       </c>
       <c r="I47" t="n">
-        <v>9.65</v>
+        <v>37.4</v>
       </c>
       <c r="J47" t="n">
-        <v>104220</v>
+        <v>89760</v>
       </c>
       <c r="K47" t="n">
-        <v>104220</v>
+        <v>89760</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023-07-28 09:31:00</t>
+          <t>2023-07-28 10:15:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2313,31 +2313,31 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DELTACORP-EQ</t>
+          <t>DELTACORP31AUG23C200</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>15044</v>
+        <v>112125</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2800</v>
       </c>
       <c r="H49" t="n">
-        <v>246</v>
+        <v>5600</v>
       </c>
       <c r="I49" t="n">
-        <v>202.5</v>
+        <v>13.45</v>
       </c>
       <c r="J49" t="n">
-        <v>49815</v>
+        <v>75320</v>
       </c>
       <c r="K49" t="n">
-        <v>-49815</v>
+        <v>-75320</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>2023-07-28 09:40:00</t>
+          <t>2023-07-28 11:15:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2358,98 +2358,98 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DELTACORP-EQ</t>
+          <t>DELTACORP31AUG23C200</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>15044</v>
+        <v>112125</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2800</v>
       </c>
       <c r="H50" t="n">
-        <v>246</v>
+        <v>5600</v>
       </c>
       <c r="I50" t="n">
-        <v>199.75</v>
+        <v>14.1</v>
       </c>
       <c r="J50" t="n">
-        <v>49138.5</v>
+        <v>78960</v>
       </c>
       <c r="K50" t="n">
-        <v>49138.5</v>
+        <v>-78960</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2023-07-28 12:21:00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DELTACORP</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>DELTACORP31AUG23C200</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>112125</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2800</v>
+      </c>
+      <c r="H51" t="n">
+        <v>11200</v>
+      </c>
+      <c r="I51" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>143360</v>
+      </c>
+      <c r="K51" t="n">
+        <v>143360</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="L51" t="inlineStr">
+    <row r="52">
+      <c r="L52" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>-676.5</v>
-      </c>
-    </row>
-    <row r="52"/>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023-07-28 09:31:00</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>RBLBANK</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>RBLBANK-EQ</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>18391</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>209</v>
-      </c>
-      <c r="I53" t="n">
-        <v>239</v>
-      </c>
-      <c r="J53" t="n">
-        <v>49951</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-49951</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M52" t="n">
+        <v>-10920</v>
+      </c>
+    </row>
+    <row r="53"/>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>2023-07-28 09:40:00</t>
+          <t>2023-07-28 10:15:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2459,210 +2459,289 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RBLBANK-EQ</t>
+          <t>RBLBANK31AUG23C240</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>18391</v>
+        <v>172747</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="H54" t="n">
-        <v>209</v>
+        <v>5000</v>
       </c>
       <c r="I54" t="n">
-        <v>239.4</v>
+        <v>14.65</v>
       </c>
       <c r="J54" t="n">
-        <v>50034.6</v>
+        <v>73250</v>
       </c>
       <c r="K54" t="n">
-        <v>50034.6</v>
+        <v>-73250</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2023-07-28 10:20:00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>RBLBANK</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>RBLBANK31AUG23C240</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>172747</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I55" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="J55" t="n">
+        <v>65250</v>
+      </c>
+      <c r="K55" t="n">
+        <v>65250</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="L55" t="inlineStr">
+    <row r="56">
+      <c r="L56" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>83.59999999999854</v>
-      </c>
-    </row>
-    <row r="56"/>
-    <row r="57">
-      <c r="B57" t="inlineStr">
+      <c r="M56" t="n">
+        <v>-8000</v>
+      </c>
+    </row>
+    <row r="57"/>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2023-07-28 11:15:00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>RBLBANK</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>RBLBANK31AUG23C237.5</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>172745</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I58" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>68500</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-68500</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
         <is>
           <t>2023-07-28 12:15:00</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>RBLBANK</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>RBLBANK31AUG23C237.5</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="E59" t="n">
         <v>172745</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
         <v>5000</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
+      <c r="H59" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I59" t="n">
         <v>12.9</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59"/>
+      <c r="J59" t="n">
+        <v>64500</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-64500</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>2023-07-28 09:31:00</t>
+          <t>2023-07-28 12:41:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>RBLBANK</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>RBLBANK31AUG23C237.5</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>172745</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="J60" t="n">
+        <v>113500</v>
+      </c>
+      <c r="K60" t="n">
+        <v>113500</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>-19500</v>
+      </c>
+    </row>
+    <row r="62"/>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2023-07-28 10:15:00</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>IEX</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>IEX-EQ</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>220</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>407</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122.8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>49979.6</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-49979.6</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023-07-28 09:45:00</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>IEX</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>IEX-EQ</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>220</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>407</v>
-      </c>
-      <c r="I61" t="n">
-        <v>124</v>
-      </c>
-      <c r="J61" t="n">
-        <v>50468</v>
-      </c>
-      <c r="K61" t="n">
-        <v>50468</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>488.4000000000015</v>
-      </c>
-    </row>
-    <row r="63"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>IEX31AUG23C124</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>148606</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>3750</v>
+      </c>
+      <c r="H63" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I63" t="n">
+        <v>6</v>
+      </c>
+      <c r="J63" t="n">
+        <v>90000</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-90000</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>2023-07-28 12:15:00</t>
+          <t>2023-07-28 11:14:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2672,11 +2751,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>IEX31AUG23C123</t>
+          <t>IEX31AUG23C124</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>148604</v>
+        <v>148606</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2687,420 +2766,420 @@
         <v>3750</v>
       </c>
       <c r="H64" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="I64" t="n">
-        <v>6.05</v>
+        <v>5.7</v>
       </c>
       <c r="J64" t="n">
-        <v>45375</v>
+        <v>85500</v>
       </c>
       <c r="K64" t="n">
-        <v>-45375</v>
+        <v>85500</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023-07-28 12:16:00</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>-4500</v>
+      </c>
+    </row>
+    <row r="66"/>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2023-07-28 11:15:00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>IEX</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>IEX31AUG23C123</t>
         </is>
       </c>
-      <c r="E65" t="n">
+      <c r="E67" t="n">
         <v>148604</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
         <v>3750</v>
       </c>
-      <c r="H65" t="n">
-        <v>7500</v>
-      </c>
-      <c r="I65" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J65" t="n">
-        <v>45375</v>
-      </c>
-      <c r="K65" t="n">
-        <v>45375</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67"/>
+      <c r="H67" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>96000</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-96000</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>2023-07-28 09:31:00</t>
+          <t>2023-07-28 12:26:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>IEX</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>IEX31AUG23C123</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>148604</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>3750</v>
+      </c>
+      <c r="H68" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J68" t="n">
+        <v>85500</v>
+      </c>
+      <c r="K68" t="n">
+        <v>85500</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>-10500</v>
+      </c>
+    </row>
+    <row r="70"/>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2023-07-28 10:15:00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>SUNTV</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>SUNTV-EQ</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>13404</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>91</v>
-      </c>
-      <c r="I68" t="n">
-        <v>545.8</v>
-      </c>
-      <c r="J68" t="n">
-        <v>49667.8</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-49667.8</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023-07-28 09:40:00</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>SUNTV</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>SUNTV-EQ</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>13404</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>91</v>
-      </c>
-      <c r="I69" t="n">
-        <v>544.95</v>
-      </c>
-      <c r="J69" t="n">
-        <v>49590.45</v>
-      </c>
-      <c r="K69" t="n">
-        <v>49590.45</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>-77.35000000000582</v>
-      </c>
-    </row>
-    <row r="71"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SUNTV31AUG23C550</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>143212</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>75600</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-75600</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>2023-07-28 09:31:00</t>
+          <t>2023-07-28 10:20:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BSOFT</t>
+          <t>SUNTV</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>BSOFT-EQ</t>
+          <t>SUNTV31AUG23C550</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6994</v>
+        <v>143212</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="H72" t="n">
-        <v>120</v>
+        <v>3000</v>
       </c>
       <c r="I72" t="n">
-        <v>416.05</v>
+        <v>22.35</v>
       </c>
       <c r="J72" t="n">
-        <v>49926</v>
+        <v>67050</v>
       </c>
       <c r="K72" t="n">
-        <v>-49926</v>
+        <v>67050</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023-07-28 09:50:00</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>BSOFT</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>BSOFT-EQ</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>6994</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>120</v>
-      </c>
-      <c r="I73" t="n">
-        <v>422.2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>50664</v>
-      </c>
-      <c r="K73" t="n">
-        <v>50664</v>
-      </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="L74" t="inlineStr">
-        <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="75"/>
+      <c r="M73" t="n">
+        <v>-8550</v>
+      </c>
+    </row>
+    <row r="74"/>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2023-07-28 11:15:00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SUNTV</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>SUNTV31AUG23C540</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>143208</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I75" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J75" t="n">
+        <v>76650</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-76650</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>2023-07-28 12:15:00</t>
+          <t>2023-07-28 11:33:00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>SUNTV</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>SUNTV31AUG23C540</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>143208</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I76" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J76" t="n">
+        <v>68700</v>
+      </c>
+      <c r="K76" t="n">
+        <v>68700</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>-7950</v>
+      </c>
+    </row>
+    <row r="78"/>
+    <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2023-07-28 10:15:00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>BSOFT</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>BSOFT31AUG23C415</t>
         </is>
       </c>
-      <c r="E76" t="n">
+      <c r="E79" t="n">
         <v>102351</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
         <v>2000</v>
       </c>
-      <c r="H76" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I76" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>42400</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-42400</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023-07-28 12:16:00</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>BSOFT</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>BSOFT31AUG23C415</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>102351</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I77" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>42400</v>
-      </c>
-      <c r="K77" t="n">
-        <v>42400</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79"/>
+      <c r="H79" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I79" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="J79" t="n">
+        <v>89400</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-89400</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>2023-07-28 09:31:00</t>
+          <t>2023-07-28 10:26:00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>BSOFT</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>MOTHERSON-EQ</t>
+          <t>BSOFT31AUG23C415</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4204</v>
+        <v>102351</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H80" t="n">
-        <v>511</v>
+        <v>4000</v>
       </c>
       <c r="I80" t="n">
-        <v>97.7</v>
+        <v>20.8</v>
       </c>
       <c r="J80" t="n">
-        <v>49924.7</v>
+        <v>83200</v>
       </c>
       <c r="K80" t="n">
-        <v>49924.7</v>
+        <v>83200</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3111,41 +3190,41 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>2023-07-28 15:26:00</t>
+          <t>2023-07-28 11:15:00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>BSOFT</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>MOTHERSON-EQ</t>
+          <t>BSOFT31AUG23C415</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4204</v>
+        <v>102351</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H81" t="n">
-        <v>511</v>
+        <v>4000</v>
       </c>
       <c r="I81" t="n">
-        <v>97.55</v>
+        <v>20.8</v>
       </c>
       <c r="J81" t="n">
-        <v>49848.05</v>
+        <v>83200</v>
       </c>
       <c r="K81" t="n">
-        <v>-49848.05</v>
+        <v>-83200</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3154,65 +3233,65 @@
       </c>
     </row>
     <row r="82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2023-07-28 12:46:00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>BSOFT</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>BSOFT31AUG23C415</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>102351</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I82" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J82" t="n">
+        <v>78400</v>
+      </c>
+      <c r="K82" t="n">
+        <v>78400</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="L83" t="inlineStr">
+        <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>76.64999999999418</v>
-      </c>
-    </row>
-    <row r="83"/>
-    <row r="84">
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023-07-28 12:15:00</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>MOTHERSON</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>MOTHERSON31AUG23P98</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>135856</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>7100</v>
-      </c>
-      <c r="H84" t="n">
-        <v>7100</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J84" t="n">
-        <v>28045</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-28045</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M83" t="n">
+        <v>-11000</v>
+      </c>
+    </row>
+    <row r="84"/>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>2023-07-28 15:26:00</t>
+          <t>2023-07-28 10:15:00</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3222,11 +3301,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>MOTHERSON31AUG23P98</t>
+          <t>MOTHERSON31AUG23P97</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>135856</v>
+        <v>135854</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3237,442 +3316,521 @@
         <v>7100</v>
       </c>
       <c r="H85" t="n">
+        <v>21300</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>87330</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-87330</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2023-07-28 14:15:00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MOTHERSON</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>MOTHERSON31AUG23P97</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>135854</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
         <v>7100</v>
       </c>
-      <c r="I85" t="n">
+      <c r="H86" t="n">
+        <v>21300</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>87330</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-87330</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2023-07-28 15:26:00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>MOTHERSON</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>MOTHERSON31AUG23P97</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>135854</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>7100</v>
+      </c>
+      <c r="H87" t="n">
+        <v>42600</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J87" t="n">
+        <v>159750</v>
+      </c>
+      <c r="K87" t="n">
+        <v>159750</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>-14909.99999999997</v>
+      </c>
+    </row>
+    <row r="89"/>
+    <row r="90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2023-07-28 11:15:00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>MOTHERSON</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>MOTHERSON31AUG23P98</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>135856</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>7100</v>
+      </c>
+      <c r="H90" t="n">
+        <v>21300</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J90" t="n">
+        <v>84135</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-84135</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2023-07-28 15:26:00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>MOTHERSON</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>MOTHERSON31AUG23P98</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>135856</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>7100</v>
+      </c>
+      <c r="H91" t="n">
+        <v>21300</v>
+      </c>
+      <c r="I91" t="n">
         <v>4.3</v>
       </c>
-      <c r="J85" t="n">
-        <v>30530</v>
-      </c>
-      <c r="K85" t="n">
-        <v>30530</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="J91" t="n">
+        <v>91590</v>
+      </c>
+      <c r="K91" t="n">
+        <v>91590</v>
+      </c>
+      <c r="L91" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="L86" t="inlineStr">
+    <row r="92">
+      <c r="L92" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="87"/>
-    <row r="88">
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023-07-28 14:15:00</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>MOTHERSON</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>MOTHERSON31AUG23P97</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>135854</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>7100</v>
-      </c>
-      <c r="H88" t="n">
-        <v>7100</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>29110</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-29110</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" t="inlineStr">
+      <c r="M92" t="n">
+        <v>7455</v>
+      </c>
+    </row>
+    <row r="93"/>
+    <row r="94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2023-07-28 10:15:00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>AXISBANK</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>AXISBANK31AUG23P950</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>88571</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>625</v>
+      </c>
+      <c r="H94" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I94" t="n">
+        <v>20</v>
+      </c>
+      <c r="J94" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-100000</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
         <is>
           <t>2023-07-28 15:26:00</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>MOTHERSON</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>MOTHERSON31AUG23P97</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>135854</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>7100</v>
-      </c>
-      <c r="H89" t="n">
-        <v>7100</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J89" t="n">
-        <v>26625</v>
-      </c>
-      <c r="K89" t="n">
-        <v>26625</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>AXISBANK</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>AXISBANK31AUG23P950</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>88571</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>625</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I95" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>96500</v>
+      </c>
+      <c r="K95" t="n">
+        <v>96500</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="L90" t="inlineStr">
+    <row r="96">
+      <c r="L96" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>-2484.999999999996</v>
-      </c>
-    </row>
-    <row r="91"/>
-    <row r="92">
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023-07-28 09:31:00</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>AXISBANK</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>AXISBANK-EQ</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>5900</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="n">
-        <v>52</v>
-      </c>
-      <c r="I92" t="n">
-        <v>946.85</v>
-      </c>
-      <c r="J92" t="n">
-        <v>49236.2</v>
-      </c>
-      <c r="K92" t="n">
-        <v>49236.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="M96" t="n">
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="97"/>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2023-07-28 10:15:00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>LALPATHLAB</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>LALPATHLAB31AUG23P2400</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>133224</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>300</v>
+      </c>
+      <c r="H98" t="n">
+        <v>600</v>
+      </c>
+      <c r="I98" t="n">
+        <v>134.75</v>
+      </c>
+      <c r="J98" t="n">
+        <v>80850</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-80850</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2023-07-28 15:26:00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>LALPATHLAB</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>LALPATHLAB31AUG23P2400</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>133224</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>300</v>
+      </c>
+      <c r="H99" t="n">
+        <v>600</v>
+      </c>
+      <c r="I99" t="n">
+        <v>138.75</v>
+      </c>
+      <c r="J99" t="n">
+        <v>83250</v>
+      </c>
+      <c r="K99" t="n">
+        <v>83250</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023-07-28 15:26:00</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>AXISBANK</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>AXISBANK-EQ</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>5900</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>52</v>
-      </c>
-      <c r="I93" t="n">
-        <v>949.7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>49384.4</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-49384.4</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="L94" t="inlineStr">
+    <row r="100">
+      <c r="L100" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>-148.2000000000044</v>
-      </c>
-    </row>
-    <row r="95"/>
-    <row r="96">
-      <c r="B96" t="inlineStr">
+      <c r="M100" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="101"/>
+    <row r="102">
+      <c r="B102" t="inlineStr">
         <is>
           <t>2023-07-28 12:15:00</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>AXISBANK</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>AXISBANK31AUG23P950</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>88571</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>625</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2500</v>
-      </c>
-      <c r="I96" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="J96" t="n">
-        <v>49875</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-49875</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023-07-28 15:26:00</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>AXISBANK</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>AXISBANK31AUG23P950</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>88571</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>625</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2500</v>
-      </c>
-      <c r="I97" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>48250</v>
-      </c>
-      <c r="K97" t="n">
-        <v>48250</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>-1625</v>
-      </c>
-    </row>
-    <row r="99"/>
-    <row r="100">
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023-07-28 09:31:00</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>LALPATHLAB</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>LALPATHLAB-EQ</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>11654</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>1</v>
-      </c>
-      <c r="H100" t="n">
-        <v>20</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2430.65</v>
-      </c>
-      <c r="J100" t="n">
-        <v>48613</v>
-      </c>
-      <c r="K100" t="n">
-        <v>48613</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023-07-28 15:26:00</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>LALPATHLAB31AUG23P2380</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>133222</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>300</v>
+      </c>
+      <c r="H102" t="n">
+        <v>600</v>
+      </c>
+      <c r="I102" t="n">
+        <v>118.1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>70860</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-70860</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2023-07-28 13:15:00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
         <is>
           <t>LALPATHLAB</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>LALPATHLAB-EQ</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>11654</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>20</v>
-      </c>
-      <c r="I101" t="n">
-        <v>2335.9</v>
-      </c>
-      <c r="J101" t="n">
-        <v>46718</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-46718</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="103"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>LALPATHLAB31AUG23P2380</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>133222</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>300</v>
+      </c>
+      <c r="H103" t="n">
+        <v>600</v>
+      </c>
+      <c r="I103" t="n">
+        <v>125.95</v>
+      </c>
+      <c r="J103" t="n">
+        <v>75570</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-75570</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>2023-07-28 12:15:00</t>
+          <t>2023-07-28 14:15:00</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3697,16 +3855,16 @@
         <v>300</v>
       </c>
       <c r="H104" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I104" t="n">
-        <v>118.1</v>
+        <v>132.65</v>
       </c>
       <c r="J104" t="n">
-        <v>35430</v>
+        <v>79590</v>
       </c>
       <c r="K104" t="n">
-        <v>-35430</v>
+        <v>-79590</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -3717,7 +3875,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>2023-07-28 13:15:00</t>
+          <t>2023-07-28 15:26:00</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3742,229 +3900,229 @@
         <v>300</v>
       </c>
       <c r="H105" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="I105" t="n">
-        <v>125.95</v>
+        <v>127</v>
       </c>
       <c r="J105" t="n">
-        <v>37785</v>
+        <v>228600</v>
       </c>
       <c r="K105" t="n">
-        <v>-37785</v>
+        <v>228600</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="inlineStr">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="107"/>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2023-07-28 10:15:00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>MGL</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>MGL31AUG23P1100</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>135604</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>800</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2400</v>
+      </c>
+      <c r="I108" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="J108" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-99600</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2023-07-28 15:26:00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>MGL</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>MGL31AUG23P1100</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>135604</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>800</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2400</v>
+      </c>
+      <c r="I109" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="J109" t="n">
+        <v>89760</v>
+      </c>
+      <c r="K109" t="n">
+        <v>89760</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>-9840</v>
+      </c>
+    </row>
+    <row r="111"/>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2023-07-28 13:15:00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>HINDPETRO31AUG23P280</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>128476</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H112" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I112" t="n">
+        <v>9</v>
+      </c>
+      <c r="J112" t="n">
+        <v>97200</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-97200</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
         <is>
           <t>2023-07-28 14:15:00</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>LALPATHLAB</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>LALPATHLAB31AUG23P2380</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>133222</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>300</v>
-      </c>
-      <c r="H106" t="n">
-        <v>300</v>
-      </c>
-      <c r="I106" t="n">
-        <v>132.65</v>
-      </c>
-      <c r="J106" t="n">
-        <v>39795</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-39795</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023-07-28 15:26:00</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>LALPATHLAB</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>LALPATHLAB31AUG23P2380</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>133222</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>300</v>
-      </c>
-      <c r="H107" t="n">
-        <v>900</v>
-      </c>
-      <c r="I107" t="n">
-        <v>127</v>
-      </c>
-      <c r="J107" t="n">
-        <v>114300</v>
-      </c>
-      <c r="K107" t="n">
-        <v>114300</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="109"/>
-    <row r="110">
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023-07-28 09:31:00</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>HINDPETRO</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>HINDPETRO-EQ</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>1406</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H110" t="n">
-        <v>175</v>
-      </c>
-      <c r="I110" t="n">
-        <v>284.65</v>
-      </c>
-      <c r="J110" t="n">
-        <v>49813.75</v>
-      </c>
-      <c r="K110" t="n">
-        <v>49813.75</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023-07-28 15:26:00</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>HINDPETRO-EQ</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>1406</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>1</v>
-      </c>
-      <c r="H111" t="n">
-        <v>175</v>
-      </c>
-      <c r="I111" t="n">
-        <v>279.45</v>
-      </c>
-      <c r="J111" t="n">
-        <v>48903.75</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-48903.75</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>909.9999999999927</v>
-      </c>
-    </row>
-    <row r="113"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>HINDPETRO31AUG23P280</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>128476</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H113" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I113" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J113" t="n">
+        <v>99900</v>
+      </c>
+      <c r="K113" t="n">
+        <v>-99900</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>2023-07-28 13:15:00</t>
+          <t>2023-07-28 15:26:00</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3989,222 +4147,31 @@
         <v>2700</v>
       </c>
       <c r="H114" t="n">
-        <v>5400</v>
+        <v>21600</v>
       </c>
       <c r="I114" t="n">
-        <v>9</v>
+        <v>9.65</v>
       </c>
       <c r="J114" t="n">
-        <v>48600</v>
+        <v>208440</v>
       </c>
       <c r="K114" t="n">
-        <v>-48600</v>
+        <v>208440</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023-07-28 14:15:00</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P280</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>128476</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H115" t="n">
-        <v>5400</v>
-      </c>
-      <c r="I115" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J115" t="n">
-        <v>49950</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-49950</v>
-      </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023-07-28 15:26:00</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P280</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>128476</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H116" t="n">
-        <v>10800</v>
-      </c>
-      <c r="I116" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="J116" t="n">
-        <v>104220</v>
-      </c>
-      <c r="K116" t="n">
-        <v>104220</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="L117" t="inlineStr">
-        <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>5670</v>
-      </c>
-    </row>
-    <row r="118"/>
-    <row r="119">
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023-07-28 09:31:00</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>MGL</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>MGL-EQ</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>17534</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
-        <v>1</v>
-      </c>
-      <c r="H119" t="n">
-        <v>45</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1090</v>
-      </c>
-      <c r="J119" t="n">
-        <v>49050</v>
-      </c>
-      <c r="K119" t="n">
-        <v>49050</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023-07-28 15:26:00</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>MGL</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>MGL-EQ</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>17534</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>1</v>
-      </c>
-      <c r="H120" t="n">
-        <v>45</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1107.3</v>
-      </c>
-      <c r="J120" t="n">
-        <v>49828.5</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-49828.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>-778.5</v>
+      <c r="M115" t="n">
+        <v>11340</v>
       </c>
     </row>
   </sheetData>

--- a/apidata/momentum/28-07-2023/report_28-07-2023.xlsx
+++ b/apidata/momentum/28-07-2023/report_28-07-2023.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M81"/>
+  <dimension ref="B1:M79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17880</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17880</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="7"/>
@@ -997,21 +997,21 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-07-28 13:01:00</t>
+          <t>2023-07-28 13:15:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>LALPATHLAB</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MOTHERSON31AUG23P98</t>
+          <t>LALPATHLAB31AUG23P2380</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>135856</v>
+        <v>133222</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1019,23 +1019,23 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7100</v>
+        <v>300</v>
       </c>
       <c r="H19" t="n">
-        <v>21300</v>
+        <v>600</v>
       </c>
       <c r="I19" t="n">
-        <v>4.35</v>
+        <v>125.95</v>
       </c>
       <c r="J19" t="n">
-        <v>92655</v>
+        <v>75570</v>
       </c>
       <c r="K19" t="n">
-        <v>92655</v>
+        <v>-75570</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1047,16 +1047,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LALPATHLAB</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LALPATHLAB31AUG23P2380</t>
+          <t>HINDPETRO31AUG23P280</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>133222</v>
+        <v>128476</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1064,19 +1064,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>300</v>
+        <v>2700</v>
       </c>
       <c r="H20" t="n">
-        <v>600</v>
+        <v>10800</v>
       </c>
       <c r="I20" t="n">
-        <v>125.95</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>75570</v>
+        <v>97200</v>
       </c>
       <c r="K20" t="n">
-        <v>-75570</v>
+        <v>-97200</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1087,21 +1087,21 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-07-28 13:15:00</t>
+          <t>2023-07-28 14:15:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P280</t>
+          <t>MOTHERSON31AUG23P97</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>128476</v>
+        <v>135854</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1109,19 +1109,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2700</v>
+        <v>7100</v>
       </c>
       <c r="H21" t="n">
-        <v>10800</v>
+        <v>21300</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>97200</v>
+        <v>87330</v>
       </c>
       <c r="K21" t="n">
-        <v>-97200</v>
+        <v>-87330</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1132,21 +1132,21 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-07-28 13:22:00</t>
+          <t>2023-07-28 14:15:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>LALPATHLAB</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AXISBANK31AUG23P950</t>
+          <t>LALPATHLAB31AUG23P2380</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>88571</v>
+        <v>133222</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1154,30 +1154,30 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>625</v>
+        <v>300</v>
       </c>
       <c r="H22" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="I22" t="n">
-        <v>21.6</v>
+        <v>132.65</v>
       </c>
       <c r="J22" t="n">
-        <v>108000</v>
+        <v>79590</v>
       </c>
       <c r="K22" t="n">
-        <v>108000</v>
+        <v>-79590</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-07-28 14:14:00</t>
+          <t>2023-07-28 14:15:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1211,32 +1211,32 @@
         <v>99900</v>
       </c>
       <c r="K23" t="n">
-        <v>99900</v>
+        <v>-99900</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-07-28 14:15:00</t>
+          <t>2023-07-28 14:16:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MOTHERSON31AUG23P97</t>
+          <t>AXISBANK31AUG23P950</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>135854</v>
+        <v>88571</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1244,44 +1244,44 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>7100</v>
+        <v>625</v>
       </c>
       <c r="H24" t="n">
-        <v>21300</v>
+        <v>5000</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>19.95</v>
       </c>
       <c r="J24" t="n">
-        <v>87330</v>
+        <v>99750</v>
       </c>
       <c r="K24" t="n">
-        <v>-87330</v>
+        <v>99750</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-07-28 14:15:00</t>
+          <t>2023-07-28 15:03:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LALPATHLAB</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LALPATHLAB31AUG23P2380</t>
+          <t>MOTHERSON31AUG23P98</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>133222</v>
+        <v>135856</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1289,30 +1289,30 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>300</v>
+        <v>7100</v>
       </c>
       <c r="H25" t="n">
-        <v>600</v>
+        <v>21300</v>
       </c>
       <c r="I25" t="n">
-        <v>132.65</v>
+        <v>4.35</v>
       </c>
       <c r="J25" t="n">
-        <v>79590</v>
+        <v>92655</v>
       </c>
       <c r="K25" t="n">
-        <v>-79590</v>
+        <v>92655</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-07-28 14:15:00</t>
+          <t>2023-07-28 15:13:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1337,41 +1337,41 @@
         <v>2700</v>
       </c>
       <c r="H26" t="n">
-        <v>10800</v>
+        <v>21600</v>
       </c>
       <c r="I26" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="J26" t="n">
-        <v>99900</v>
+        <v>205200</v>
       </c>
       <c r="K26" t="n">
-        <v>-99900</v>
+        <v>205200</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-07-28 14:27:00</t>
+          <t>2023-07-28 15:15:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>SUNTV</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P280</t>
+          <t>SUNTV31AUG23C545</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>128476</v>
+        <v>143210</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1379,23 +1379,23 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="H27" t="n">
-        <v>10800</v>
+        <v>3000</v>
       </c>
       <c r="I27" t="n">
-        <v>10.1</v>
+        <v>24.05</v>
       </c>
       <c r="J27" t="n">
-        <v>109080</v>
+        <v>72150</v>
       </c>
       <c r="K27" t="n">
-        <v>109080</v>
+        <v>-72150</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1407,16 +1407,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SUNTV</t>
+          <t>LALPATHLAB</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SUNTV31AUG23C545</t>
+          <t>LALPATHLAB31AUG23P2360</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>143210</v>
+        <v>133208</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1424,19 +1424,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="H28" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="I28" t="n">
-        <v>24.05</v>
+        <v>118.65</v>
       </c>
       <c r="J28" t="n">
-        <v>72150</v>
+        <v>71190</v>
       </c>
       <c r="K28" t="n">
-        <v>-72150</v>
+        <v>-71190</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1452,16 +1452,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LALPATHLAB</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LALPATHLAB31AUG23P2360</t>
+          <t>HINDPETRO31AUG23P280</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>133208</v>
+        <v>128476</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1469,19 +1469,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>300</v>
+        <v>2700</v>
       </c>
       <c r="H29" t="n">
-        <v>600</v>
+        <v>8100</v>
       </c>
       <c r="I29" t="n">
-        <v>118.65</v>
+        <v>9.6</v>
       </c>
       <c r="J29" t="n">
-        <v>71190</v>
+        <v>77760</v>
       </c>
       <c r="K29" t="n">
-        <v>-71190</v>
+        <v>-77760</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1492,21 +1492,21 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-07-28 15:15:00</t>
+          <t>2023-07-28 15:26:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>SUNTV</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P280</t>
+          <t>SUNTV31AUG23C545</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>128476</v>
+        <v>143210</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1514,23 +1514,23 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="H30" t="n">
-        <v>8100</v>
+        <v>3000</v>
       </c>
       <c r="I30" t="n">
-        <v>9.6</v>
+        <v>23.6</v>
       </c>
       <c r="J30" t="n">
-        <v>77760</v>
+        <v>70800</v>
       </c>
       <c r="K30" t="n">
-        <v>-77760</v>
+        <v>70800</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1542,16 +1542,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SUNTV</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SUNTV31AUG23C545</t>
+          <t>MOTHERSON31AUG23P97</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>143210</v>
+        <v>135854</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1559,19 +1559,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1500</v>
+        <v>7100</v>
       </c>
       <c r="H31" t="n">
-        <v>3000</v>
+        <v>21300</v>
       </c>
       <c r="I31" t="n">
-        <v>23.6</v>
+        <v>3.75</v>
       </c>
       <c r="J31" t="n">
-        <v>70800</v>
+        <v>79875</v>
       </c>
       <c r="K31" t="n">
-        <v>70800</v>
+        <v>79875</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1587,16 +1587,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>LALPATHLAB</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MOTHERSON31AUG23P97</t>
+          <t>LALPATHLAB31AUG23P2380</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>135854</v>
+        <v>133222</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7100</v>
+        <v>300</v>
       </c>
       <c r="H32" t="n">
-        <v>21300</v>
+        <v>1800</v>
       </c>
       <c r="I32" t="n">
-        <v>3.75</v>
+        <v>127</v>
       </c>
       <c r="J32" t="n">
-        <v>79875</v>
+        <v>228600</v>
       </c>
       <c r="K32" t="n">
-        <v>79875</v>
+        <v>228600</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1637,11 +1637,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LALPATHLAB31AUG23P2380</t>
+          <t>LALPATHLAB31AUG23P2360</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>133222</v>
+        <v>133208</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1652,16 +1652,16 @@
         <v>300</v>
       </c>
       <c r="H33" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="I33" t="n">
-        <v>127</v>
+        <v>110.4</v>
       </c>
       <c r="J33" t="n">
-        <v>228600</v>
+        <v>66240</v>
       </c>
       <c r="K33" t="n">
-        <v>228600</v>
+        <v>66240</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1677,16 +1677,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LALPATHLAB</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LALPATHLAB31AUG23P2360</t>
+          <t>HINDPETRO31AUG23P280</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>133208</v>
+        <v>128476</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>300</v>
+        <v>2700</v>
       </c>
       <c r="H34" t="n">
-        <v>600</v>
+        <v>8100</v>
       </c>
       <c r="I34" t="n">
-        <v>110.4</v>
+        <v>9.65</v>
       </c>
       <c r="J34" t="n">
-        <v>66240</v>
+        <v>78165</v>
       </c>
       <c r="K34" t="n">
-        <v>66240</v>
+        <v>78165</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1714,56 +1714,56 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2023-07-28 15:26:00</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P280</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>128476</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H35" t="n">
-        <v>8100</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="J35" t="n">
-        <v>78165</v>
-      </c>
-      <c r="K35" t="n">
-        <v>78165</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="36"/>
+    <row r="35"/>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2023-07-28 12:15:00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>RBLBANK</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>RBLBANK31AUG23C237.5</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>172745</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>64500</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-64500</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-07-28 12:15:00</t>
+          <t>2023-07-28 12:16:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1797,74 +1797,74 @@
         <v>64500</v>
       </c>
       <c r="K37" t="n">
-        <v>-64500</v>
+        <v>64500</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39"/>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2023-07-28 12:15:00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>IEX</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>IEX31AUG23C123</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>148604</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>3750</v>
+      </c>
+      <c r="H40" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J40" t="n">
+        <v>90750</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-90750</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2023-07-28 12:16:00</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>RBLBANK</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>RBLBANK31AUG23C237.5</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>172745</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H38" t="n">
-        <v>5000</v>
-      </c>
-      <c r="I38" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J38" t="n">
-        <v>64500</v>
-      </c>
-      <c r="K38" t="n">
-        <v>64500</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40"/>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>2023-07-28 12:15:00</t>
+          <t>2023-07-28 12:16:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1898,74 +1898,74 @@
         <v>90750</v>
       </c>
       <c r="K41" t="n">
-        <v>-90750</v>
+        <v>90750</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43"/>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2023-07-28 12:15:00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BSOFT</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>BSOFT31AUG23C415</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>102351</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I44" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>84800</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-84800</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2023-07-28 12:16:00</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>IEX</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>IEX31AUG23C123</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>148604</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>3750</v>
-      </c>
-      <c r="H42" t="n">
-        <v>15000</v>
-      </c>
-      <c r="I42" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J42" t="n">
-        <v>90750</v>
-      </c>
-      <c r="K42" t="n">
-        <v>90750</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44"/>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023-07-28 12:15:00</t>
+          <t>2023-07-28 12:16:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1999,74 +1999,74 @@
         <v>84800</v>
       </c>
       <c r="K45" t="n">
-        <v>-84800</v>
+        <v>84800</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47"/>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2023-07-28 12:15:00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MOTHERSON</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>MOTHERSON31AUG23P98</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>135856</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>7100</v>
+      </c>
+      <c r="H48" t="n">
+        <v>21300</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J48" t="n">
+        <v>84135</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-84135</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2023-07-28 12:16:00</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>BSOFT</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>BSOFT31AUG23C415</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>102351</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4000</v>
-      </c>
-      <c r="I46" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>84800</v>
-      </c>
-      <c r="K46" t="n">
-        <v>84800</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48"/>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023-07-28 12:15:00</t>
+          <t>2023-07-28 15:03:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2094,80 +2094,80 @@
         <v>21300</v>
       </c>
       <c r="I49" t="n">
-        <v>3.95</v>
+        <v>4.35</v>
       </c>
       <c r="J49" t="n">
-        <v>84135</v>
+        <v>92655</v>
       </c>
       <c r="K49" t="n">
-        <v>-84135</v>
+        <v>92655</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="51"/>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2023-07-28 14:15:00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MOTHERSON</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>MOTHERSON31AUG23P97</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>135854</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>7100</v>
+      </c>
+      <c r="H52" t="n">
+        <v>21300</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>87330</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-87330</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2023-07-28 13:01:00</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>MOTHERSON</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>MOTHERSON31AUG23P98</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>135856</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>7100</v>
-      </c>
-      <c r="H50" t="n">
-        <v>21300</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J50" t="n">
-        <v>92655</v>
-      </c>
-      <c r="K50" t="n">
-        <v>92655</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>8520</v>
-      </c>
-    </row>
-    <row r="52"/>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023-07-28 14:15:00</t>
+          <t>2023-07-28 15:26:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2195,80 +2195,80 @@
         <v>21300</v>
       </c>
       <c r="I53" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J53" t="n">
-        <v>87330</v>
+        <v>79875</v>
       </c>
       <c r="K53" t="n">
-        <v>-87330</v>
+        <v>79875</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>-7454.999999999985</v>
+      </c>
+    </row>
+    <row r="55"/>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2023-07-28 12:15:00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>AXISBANK</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>AXISBANK31AUG23P950</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>88571</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>625</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I56" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="J56" t="n">
+        <v>99750</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-99750</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023-07-28 15:26:00</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>MOTHERSON</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>MOTHERSON31AUG23P97</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>135854</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>7100</v>
-      </c>
-      <c r="H54" t="n">
-        <v>21300</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J54" t="n">
-        <v>79875</v>
-      </c>
-      <c r="K54" t="n">
-        <v>79875</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>-7454.999999999985</v>
-      </c>
-    </row>
-    <row r="56"/>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>2023-07-28 12:15:00</t>
+          <t>2023-07-28 14:16:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2302,74 +2302,74 @@
         <v>99750</v>
       </c>
       <c r="K57" t="n">
-        <v>-99750</v>
+        <v>99750</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59"/>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2023-07-28 12:15:00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>LALPATHLAB</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>LALPATHLAB31AUG23P2380</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>133222</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>300</v>
+      </c>
+      <c r="H60" t="n">
+        <v>600</v>
+      </c>
+      <c r="I60" t="n">
+        <v>118.1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>70860</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-70860</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023-07-28 13:22:00</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>AXISBANK</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>AXISBANK31AUG23P950</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>88571</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>625</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5000</v>
-      </c>
-      <c r="I58" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="J58" t="n">
-        <v>108000</v>
-      </c>
-      <c r="K58" t="n">
-        <v>108000</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="60"/>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>2023-07-28 12:15:00</t>
+          <t>2023-07-28 13:15:00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2397,13 +2397,13 @@
         <v>600</v>
       </c>
       <c r="I61" t="n">
-        <v>118.1</v>
+        <v>125.95</v>
       </c>
       <c r="J61" t="n">
-        <v>70860</v>
+        <v>75570</v>
       </c>
       <c r="K61" t="n">
-        <v>-70860</v>
+        <v>-75570</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>2023-07-28 13:15:00</t>
+          <t>2023-07-28 14:15:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2442,13 +2442,13 @@
         <v>600</v>
       </c>
       <c r="I62" t="n">
-        <v>125.95</v>
+        <v>132.65</v>
       </c>
       <c r="J62" t="n">
-        <v>75570</v>
+        <v>79590</v>
       </c>
       <c r="K62" t="n">
-        <v>-75570</v>
+        <v>-79590</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>2023-07-28 14:15:00</t>
+          <t>2023-07-28 15:26:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2484,83 +2484,83 @@
         <v>300</v>
       </c>
       <c r="H63" t="n">
+        <v>1800</v>
+      </c>
+      <c r="I63" t="n">
+        <v>127</v>
+      </c>
+      <c r="J63" t="n">
+        <v>228600</v>
+      </c>
+      <c r="K63" t="n">
+        <v>228600</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="65"/>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2023-07-28 15:15:00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>LALPATHLAB</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>LALPATHLAB31AUG23P2360</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>133208</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>300</v>
+      </c>
+      <c r="H66" t="n">
         <v>600</v>
       </c>
-      <c r="I63" t="n">
-        <v>132.65</v>
-      </c>
-      <c r="J63" t="n">
-        <v>79590</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-79590</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="I66" t="n">
+        <v>118.65</v>
+      </c>
+      <c r="J66" t="n">
+        <v>71190</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-71190</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023-07-28 15:26:00</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>LALPATHLAB</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>LALPATHLAB31AUG23P2380</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>133222</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>300</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1800</v>
-      </c>
-      <c r="I64" t="n">
-        <v>127</v>
-      </c>
-      <c r="J64" t="n">
-        <v>228600</v>
-      </c>
-      <c r="K64" t="n">
-        <v>228600</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="66"/>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>2023-07-28 15:15:00</t>
+          <t>2023-07-28 15:26:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2588,80 +2588,80 @@
         <v>600</v>
       </c>
       <c r="I67" t="n">
-        <v>118.65</v>
+        <v>110.4</v>
       </c>
       <c r="J67" t="n">
-        <v>71190</v>
+        <v>66240</v>
       </c>
       <c r="K67" t="n">
-        <v>-71190</v>
+        <v>66240</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>-4950</v>
+      </c>
+    </row>
+    <row r="69"/>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2023-07-28 13:15:00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>HINDPETRO31AUG23P280</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>128476</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H70" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>97200</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-97200</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023-07-28 15:26:00</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>LALPATHLAB</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>LALPATHLAB31AUG23P2360</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>133208</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>300</v>
-      </c>
-      <c r="H68" t="n">
-        <v>600</v>
-      </c>
-      <c r="I68" t="n">
-        <v>110.4</v>
-      </c>
-      <c r="J68" t="n">
-        <v>66240</v>
-      </c>
-      <c r="K68" t="n">
-        <v>66240</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>-4950</v>
-      </c>
-    </row>
-    <row r="70"/>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>2023-07-28 13:15:00</t>
+          <t>2023-07-28 14:15:00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2689,13 +2689,13 @@
         <v>10800</v>
       </c>
       <c r="I71" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="J71" t="n">
-        <v>97200</v>
+        <v>99900</v>
       </c>
       <c r="K71" t="n">
-        <v>-97200</v>
+        <v>-99900</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>2023-07-28 14:14:00</t>
+          <t>2023-07-28 15:13:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2731,16 +2731,16 @@
         <v>2700</v>
       </c>
       <c r="H72" t="n">
-        <v>10800</v>
+        <v>21600</v>
       </c>
       <c r="I72" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="J72" t="n">
-        <v>99900</v>
+        <v>205200</v>
       </c>
       <c r="K72" t="n">
-        <v>99900</v>
+        <v>205200</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>2023-07-28 14:15:00</t>
+          <t>2023-07-28 15:15:00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2776,16 +2776,16 @@
         <v>2700</v>
       </c>
       <c r="H73" t="n">
-        <v>10800</v>
+        <v>8100</v>
       </c>
       <c r="I73" t="n">
-        <v>9.25</v>
+        <v>9.6</v>
       </c>
       <c r="J73" t="n">
-        <v>99900</v>
+        <v>77760</v>
       </c>
       <c r="K73" t="n">
-        <v>-99900</v>
+        <v>-77760</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>2023-07-28 14:27:00</t>
+          <t>2023-07-28 15:26:00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2821,16 +2821,16 @@
         <v>2700</v>
       </c>
       <c r="H74" t="n">
-        <v>10800</v>
+        <v>8100</v>
       </c>
       <c r="I74" t="n">
-        <v>10.1</v>
+        <v>9.65</v>
       </c>
       <c r="J74" t="n">
-        <v>109080</v>
+        <v>78165</v>
       </c>
       <c r="K74" t="n">
-        <v>109080</v>
+        <v>78165</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -2839,203 +2839,113 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="inlineStr">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>8505</v>
+      </c>
+    </row>
+    <row r="76"/>
+    <row r="77">
+      <c r="B77" t="inlineStr">
         <is>
           <t>2023-07-28 15:15:00</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P280</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>128476</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H75" t="n">
-        <v>8100</v>
-      </c>
-      <c r="I75" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J75" t="n">
-        <v>77760</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-77760</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SUNTV</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>SUNTV31AUG23C545</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>143210</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I77" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="J77" t="n">
+        <v>72150</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-72150</v>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="B76" t="inlineStr">
+    <row r="78">
+      <c r="B78" t="inlineStr">
         <is>
           <t>2023-07-28 15:26:00</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P280</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>128476</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H76" t="n">
-        <v>8100</v>
-      </c>
-      <c r="I76" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="J76" t="n">
-        <v>78165</v>
-      </c>
-      <c r="K76" t="n">
-        <v>78165</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SUNTV</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SUNTV31AUG23C545</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>143210</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I78" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>70800</v>
+      </c>
+      <c r="K78" t="n">
+        <v>70800</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="L77" t="inlineStr">
+    <row r="79">
+      <c r="L79" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>12285</v>
-      </c>
-    </row>
-    <row r="78"/>
-    <row r="79">
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023-07-28 15:15:00</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>SUNTV</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>SUNTV31AUG23C545</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>143210</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H79" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I79" t="n">
-        <v>24.05</v>
-      </c>
-      <c r="J79" t="n">
-        <v>72150</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-72150</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023-07-28 15:26:00</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>SUNTV</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>SUNTV31AUG23C545</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>143210</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H80" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I80" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="J80" t="n">
-        <v>70800</v>
-      </c>
-      <c r="K80" t="n">
-        <v>70800</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="M79" t="n">
         <v>-1350</v>
       </c>
     </row>
